--- a/ParallelPixelLAnes/Idee/Mappe1.xlsx
+++ b/ParallelPixelLAnes/Idee/Mappe1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
   <si>
     <t>RegisterNR</t>
   </si>
@@ -192,6 +192,21 @@
   </si>
   <si>
     <t>currentX</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
   </si>
 </sst>
 </file>
@@ -550,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="E18" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -773,7 +788,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>0</v>
       </c>
@@ -790,7 +805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -807,7 +822,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>2</v>
       </c>
@@ -824,7 +839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -841,7 +856,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>4</v>
       </c>
@@ -854,8 +869,11 @@
       <c r="H21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -866,7 +884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>6</v>
       </c>
@@ -877,7 +895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -888,7 +906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>8</v>
       </c>
@@ -898,8 +916,11 @@
       <c r="H25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>9</v>
       </c>
@@ -910,7 +931,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>10</v>
       </c>
@@ -921,7 +942,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>11</v>
       </c>
@@ -932,7 +953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>12</v>
       </c>
@@ -942,8 +963,11 @@
       <c r="H29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>13</v>
       </c>
@@ -954,7 +978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>14</v>
       </c>
@@ -965,7 +989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>15</v>
       </c>
@@ -976,7 +1000,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>16</v>
       </c>
@@ -986,8 +1010,11 @@
       <c r="H33" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>17</v>
       </c>
@@ -998,7 +1025,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>18</v>
       </c>
@@ -1009,7 +1036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>19</v>
       </c>
@@ -1020,7 +1047,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>20</v>
       </c>
@@ -1030,8 +1057,11 @@
       <c r="H37" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>21</v>
       </c>
@@ -1042,7 +1072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>22</v>
       </c>
@@ -1053,7 +1083,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>23</v>
       </c>
@@ -1064,7 +1094,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>24</v>
       </c>
@@ -1072,7 +1102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>25</v>
       </c>
@@ -1080,7 +1110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>26</v>
       </c>
@@ -1088,7 +1118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>27</v>
       </c>
@@ -1096,7 +1126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>28</v>
       </c>
@@ -1104,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>29</v>
       </c>
@@ -1112,7 +1142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>30</v>
       </c>
@@ -1123,7 +1153,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>31</v>
       </c>
